--- a/data/trans_dic/Q45B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01859792278811499</v>
+        <v>0.01893404281509873</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002995219643308073</v>
+        <v>0.002985284950868699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006388051260678866</v>
+        <v>0.006396242119132665</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04392010513747798</v>
+        <v>0.04810493304316815</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04871516097916324</v>
+        <v>0.04785243801917338</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01278083618027845</v>
+        <v>0.01294261095560782</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03846722552120856</v>
+        <v>0.04045329411595805</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0286427791789634</v>
+        <v>0.02986134130444578</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01238400296634482</v>
+        <v>0.01309163872304847</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07550890968885784</v>
+        <v>0.07609835390286232</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02895184952249574</v>
+        <v>0.02622218415386652</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03560504261505838</v>
+        <v>0.03613983654794291</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1115747380269975</v>
+        <v>0.1138007053260497</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1164776502741169</v>
+        <v>0.1171190224635232</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05953882743881384</v>
+        <v>0.05851790160028749</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08534913140386885</v>
+        <v>0.08101208101081377</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06389104700643441</v>
+        <v>0.06515298432423797</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03964008603020124</v>
+        <v>0.03825777758147436</v>
       </c>
     </row>
     <row r="7">
@@ -784,29 +784,29 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008972758198697346</v>
+        <v>0.007732854667548291</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005642180834016714</v>
+        <v>0.005616304639633893</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.04349271062676621</v>
+        <v>0.04695088957620159</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01923390202404534</v>
+        <v>0.01904530738102071</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.00187168905147596</v>
+        <v>0.001861802714646711</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03016215943801287</v>
+        <v>0.03120374686928593</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01435537901704091</v>
+        <v>0.01440971115196964</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0009548858756935607</v>
+        <v>0.0009588215180075053</v>
       </c>
     </row>
     <row r="9">
@@ -817,29 +817,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03258878107269883</v>
+        <v>0.03059131792848771</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02670841490205432</v>
+        <v>0.02567211817961207</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.08705488042693894</v>
+        <v>0.08973497042291446</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05789099417559883</v>
+        <v>0.05306234971731247</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01593969951256608</v>
+        <v>0.01610677588977927</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05596895070701308</v>
+        <v>0.05466465756248052</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03303312270867022</v>
+        <v>0.03463226725410595</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.008137412432731342</v>
+        <v>0.008187794239464133</v>
       </c>
     </row>
     <row r="10">
@@ -892,28 +892,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002868430234318012</v>
+        <v>0.002859116795162292</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05662989232285683</v>
+        <v>0.05581704968743476</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04351941228263711</v>
+        <v>0.04413234844160856</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04249886639000967</v>
+        <v>0.04143149846574031</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03030559588240066</v>
+        <v>0.03137731649036252</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02713821486790097</v>
+        <v>0.02671915688284857</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02174409137877907</v>
+        <v>0.02251578217961146</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01863748334637099</v>
+        <v>0.02030852987699467</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02309898878411751</v>
+        <v>0.02374802445640884</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0200916545932202</v>
+        <v>0.01593010165237552</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1160926884292486</v>
+        <v>0.1176709701977855</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09886838130864088</v>
+        <v>0.1004348331306447</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09345625870467053</v>
+        <v>0.09122455090310623</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06260536587908315</v>
+        <v>0.06310905127463017</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05906431616536331</v>
+        <v>0.05725570271001001</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04985118542308906</v>
+        <v>0.05021712870003202</v>
       </c>
     </row>
     <row r="13">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007517017818608354</v>
+        <v>0.005557994457486045</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04876264988140993</v>
+        <v>0.05192327394312898</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02187433693110904</v>
+        <v>0.02117340492223493</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01227981462383877</v>
+        <v>0.01234355726981651</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03210857584988427</v>
+        <v>0.03398066092128264</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01148576345844338</v>
+        <v>0.01220356394180014</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.008641734152137204</v>
+        <v>0.007657980437875599</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03860371590818635</v>
+        <v>0.03990501044083952</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01266545755654088</v>
+        <v>0.01193697612902645</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0186528653784922</v>
+        <v>0.01789736270458069</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1050065487088841</v>
+        <v>0.1059903912891064</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0582183652521172</v>
+        <v>0.06033949808295495</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04261863535477994</v>
+        <v>0.04497699283800564</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06403619278192979</v>
+        <v>0.0644932442723728</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03286643628254753</v>
+        <v>0.03118113899034037</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02637235359230954</v>
+        <v>0.02533795553767003</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008900940282024122</v>
+        <v>0.008588838242719525</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004160556741422607</v>
+        <v>0.004166125789438504</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04366733331395832</v>
+        <v>0.04236066127721944</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.009027953943796402</v>
+        <v>0.009103453160499058</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.003778249632515325</v>
+        <v>0.003778051225550501</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03110127526326878</v>
+        <v>0.03181022201918528</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.008797592825827706</v>
+        <v>0.009150168706273609</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.004185835691626974</v>
+        <v>0.004333031281371274</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05788204611059358</v>
+        <v>0.05774935647847593</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03786456650111251</v>
+        <v>0.03433130828776421</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03813724518977953</v>
+        <v>0.0405150273226036</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1241056636561467</v>
+        <v>0.1294876605916974</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0548097548696986</v>
+        <v>0.05148414228029188</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03461825403122248</v>
+        <v>0.02750982631003094</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07873951180535096</v>
+        <v>0.07715125007384212</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03505715660314643</v>
+        <v>0.03523864245612622</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02561173908257259</v>
+        <v>0.02666823908112956</v>
       </c>
     </row>
     <row r="19">
@@ -1219,28 +1219,28 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.008658742921021074</v>
+        <v>0.007141206984273295</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003612617193789749</v>
+        <v>0.003521574028781329</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08466140727693515</v>
+        <v>0.08470061483515244</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03629815748199475</v>
+        <v>0.03839520317704024</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003274045839082038</v>
+        <v>0.003278273370756155</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04432964900358497</v>
+        <v>0.04419823509636416</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02757485361104866</v>
+        <v>0.02750609285211722</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.003551597063237512</v>
+        <v>0.003715013952104142</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0164013611797863</v>
+        <v>0.01637960533772849</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04351054118784042</v>
+        <v>0.04215585030034383</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0296629084449664</v>
+        <v>0.02981468183879008</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1624306717508723</v>
+        <v>0.1634386890821491</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.09634837284091122</v>
+        <v>0.09572239227534668</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02964873338657576</v>
+        <v>0.02678021932300379</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.08549085038350945</v>
+        <v>0.08370849428117838</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06097372577086141</v>
+        <v>0.06227414821153089</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02132557934100222</v>
+        <v>0.02211693819411111</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.001649389230710163</v>
+        <v>0.001643878718582814</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01265224936843256</v>
+        <v>0.01332973168096014</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003397346432996935</v>
+        <v>0.003327001224049741</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07023286041861343</v>
+        <v>0.06841424929325299</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06974870961813988</v>
+        <v>0.07048278369464757</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01745127914220514</v>
+        <v>0.01797115813894936</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03732456029311142</v>
+        <v>0.03857524311525719</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04676542147758905</v>
+        <v>0.0466112372303731</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01250887929205066</v>
+        <v>0.01290498580952212</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02072232695977679</v>
+        <v>0.0190284151083622</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04125530833963619</v>
+        <v>0.04096876664354482</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01991968540813465</v>
+        <v>0.0206357421788511</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1128087373852911</v>
+        <v>0.1133071182256359</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1124884633327244</v>
+        <v>0.1171735029843819</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04527512618194628</v>
+        <v>0.04423818975710443</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06233152222730659</v>
+        <v>0.06389351449198136</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0732027363920673</v>
+        <v>0.07265177284448628</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02840467791129132</v>
+        <v>0.02801738042361361</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0251760295502333</v>
+        <v>0.02365681752118737</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04413020037165153</v>
+        <v>0.04413200065187745</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.008799843995539257</v>
+        <v>0.008451833073032751</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04617070428812413</v>
+        <v>0.04726143915606076</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.09854671242589394</v>
+        <v>0.1001536346694798</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05288648979246258</v>
+        <v>0.05359460769456017</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04005067621715459</v>
+        <v>0.03998806321428974</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07873097808429262</v>
+        <v>0.07846435407189579</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03410164906709762</v>
+        <v>0.03341222601533766</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05291924468847335</v>
+        <v>0.05119649597167054</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08040973857061211</v>
+        <v>0.0796581333761944</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02622091509091495</v>
+        <v>0.02612440923480193</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.08169478769935511</v>
+        <v>0.08201311246309384</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1497224286355271</v>
+        <v>0.1461588121869365</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08934221212696358</v>
+        <v>0.08759935885664942</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.06154450794622177</v>
+        <v>0.06232437618726246</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1075698861357107</v>
+        <v>0.1085166467524541</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05281384846222851</v>
+        <v>0.05378177752765182</v>
       </c>
     </row>
     <row r="28">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01548822130009274</v>
+        <v>0.01551058021790936</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01955178712843714</v>
+        <v>0.01992350316776292</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.006420311094387732</v>
+        <v>0.00665074093178796</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.06875888371794873</v>
+        <v>0.0688852891732273</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.06576090582617035</v>
+        <v>0.06621803532518303</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.02957784767489845</v>
+        <v>0.02962323179703668</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.04489091120795585</v>
+        <v>0.04426547535522569</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.04516282114549398</v>
+        <v>0.04443287013788803</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01960697752991314</v>
+        <v>0.0189353624808998</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02509985661187526</v>
+        <v>0.02567120914193067</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03115675152898698</v>
+        <v>0.03095991099073343</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01328254132440556</v>
+        <v>0.01342003245338062</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.08861432677000511</v>
+        <v>0.08793568542389285</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.08321669863167985</v>
+        <v>0.08397565267401735</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04181434921630945</v>
+        <v>0.04141348628218721</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.05519352739341961</v>
+        <v>0.0551809956463087</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.05529510901595711</v>
+        <v>0.05547170867555551</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.02694322867166246</v>
+        <v>0.02649845076267652</v>
       </c>
     </row>
     <row r="31">
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5077</v>
+        <v>5169</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11456</v>
+        <v>12548</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13993</v>
+        <v>13745</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3690</v>
+        <v>3737</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>20536</v>
+        <v>21596</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16670</v>
+        <v>17379</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7158</v>
+        <v>7567</v>
       </c>
     </row>
     <row r="7">
@@ -1870,31 +1870,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20615</v>
+        <v>20776</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8533</v>
+        <v>7729</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10300</v>
+        <v>10455</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>29103</v>
+        <v>29684</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>33458</v>
+        <v>33642</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17189</v>
+        <v>16894</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>45563</v>
+        <v>43248</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>37184</v>
+        <v>37918</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22912</v>
+        <v>22113</v>
       </c>
     </row>
     <row r="8">
@@ -1979,29 +1979,29 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4424</v>
+        <v>3813</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2852</v>
+        <v>2839</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>21918</v>
+        <v>23661</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10054</v>
+        <v>9956</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>30072</v>
+        <v>31111</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14761</v>
+        <v>14817</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>977</v>
+        <v>981</v>
       </c>
     </row>
     <row r="11">
@@ -2012,29 +2012,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16069</v>
+        <v>15084</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13502</v>
+        <v>12978</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>43871</v>
+        <v>45222</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30262</v>
+        <v>27738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8338</v>
+        <v>8425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>55802</v>
+        <v>54502</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>33967</v>
+        <v>35611</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8329</v>
+        <v>8380</v>
       </c>
     </row>
     <row r="12">
@@ -2122,28 +2122,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>18994</v>
+        <v>18722</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14799</v>
+        <v>15008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14130</v>
+        <v>13775</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19828</v>
+        <v>20529</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>17997</v>
+        <v>17719</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>14135</v>
+        <v>14637</v>
       </c>
     </row>
     <row r="15">
@@ -2154,31 +2154,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5942</v>
+        <v>6475</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7464</v>
+        <v>7673</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6381</v>
+        <v>5059</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>38939</v>
+        <v>39468</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33621</v>
+        <v>34154</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>31071</v>
+        <v>30329</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>40960</v>
+        <v>41290</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>39170</v>
+        <v>37970</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>32407</v>
+        <v>32645</v>
       </c>
     </row>
     <row r="16">
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2696</v>
+        <v>1993</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
@@ -2272,22 +2272,22 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18113</v>
+        <v>19287</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8484</v>
+        <v>8212</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4743</v>
+        <v>4768</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23443</v>
+        <v>24810</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8727</v>
+        <v>9272</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6519</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="19">
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13846</v>
+        <v>14313</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4711</v>
+        <v>4440</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6867</v>
+        <v>6589</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>39005</v>
+        <v>39371</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22580</v>
+        <v>23403</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16461</v>
+        <v>17372</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>46755</v>
+        <v>47088</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>24972</v>
+        <v>23692</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>19896</v>
+        <v>19115</v>
       </c>
     </row>
     <row r="20">
@@ -2407,31 +2407,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1810</v>
+        <v>1746</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9068</v>
+        <v>8797</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1974</v>
+        <v>1990</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>823</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>12782</v>
+        <v>13073</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3784</v>
+        <v>3936</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1796</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="23">
@@ -2442,31 +2442,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11768</v>
+        <v>11741</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8007</v>
+        <v>7260</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8055</v>
+        <v>8558</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25773</v>
+        <v>26890</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11984</v>
+        <v>11257</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7538</v>
+        <v>5991</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>32360</v>
+        <v>31707</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15079</v>
+        <v>15157</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>10987</v>
+        <v>11440</v>
       </c>
     </row>
     <row r="24">
@@ -2554,28 +2554,28 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2363</v>
+        <v>1949</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>951</v>
+        <v>927</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>23548</v>
+        <v>23559</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>10100</v>
+        <v>10683</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>24335</v>
+        <v>24263</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>15198</v>
+        <v>15160</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1901</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="27">
@@ -2586,31 +2586,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4442</v>
+        <v>4436</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11874</v>
+        <v>11505</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7805</v>
+        <v>7845</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>45179</v>
+        <v>45459</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>26808</v>
+        <v>26634</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8068</v>
+        <v>7287</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>46931</v>
+        <v>45952</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>33606</v>
+        <v>34322</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11414</v>
+        <v>11838</v>
       </c>
     </row>
     <row r="28">
@@ -2695,31 +2695,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>8300</v>
+        <v>8744</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2216</v>
+        <v>2170</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>44824</v>
+        <v>43663</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>48231</v>
+        <v>48738</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>11979</v>
+        <v>12335</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>46777</v>
+        <v>48344</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>63015</v>
+        <v>62807</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>16745</v>
+        <v>17275</v>
       </c>
     </row>
     <row r="31">
@@ -2730,31 +2730,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>12745</v>
+        <v>11703</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>27062</v>
+        <v>26874</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>12993</v>
+        <v>13460</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>71997</v>
+        <v>72315</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>77785</v>
+        <v>81025</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>31077</v>
+        <v>30365</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>78117</v>
+        <v>80074</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>98638</v>
+        <v>97896</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>38024</v>
+        <v>37506</v>
       </c>
     </row>
     <row r="32">
@@ -2839,31 +2839,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>18726</v>
+        <v>17596</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>34332</v>
+        <v>34333</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6843</v>
+        <v>6573</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>36175</v>
+        <v>37030</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>80663</v>
+        <v>81978</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>43636</v>
+        <v>44220</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>61170</v>
+        <v>61074</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>125693</v>
+        <v>125268</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>54656</v>
+        <v>53551</v>
       </c>
     </row>
     <row r="35">
@@ -2874,31 +2874,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>39361</v>
+        <v>38080</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>62556</v>
+        <v>61971</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>20391</v>
+        <v>20316</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>64009</v>
+        <v>64258</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>122552</v>
+        <v>119635</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>73715</v>
+        <v>72277</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>93997</v>
+        <v>95188</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>171734</v>
+        <v>173246</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>84647</v>
+        <v>86199</v>
       </c>
     </row>
     <row r="36">
@@ -2983,31 +2983,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>50748</v>
+        <v>50821</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>66743</v>
+        <v>68012</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>21699</v>
+        <v>22478</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>232350</v>
+        <v>232777</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>233109</v>
+        <v>234730</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>104465</v>
+        <v>104625</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>298782</v>
+        <v>294620</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>314263</v>
+        <v>309184</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>135516</v>
+        <v>130874</v>
       </c>
     </row>
     <row r="39">
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>82241</v>
+        <v>84113</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>106358</v>
+        <v>105686</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>44892</v>
+        <v>45357</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>299445</v>
+        <v>297152</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>294986</v>
+        <v>297677</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>147682</v>
+        <v>146266</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>367354</v>
+        <v>367270</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>384768</v>
+        <v>385997</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>186221</v>
+        <v>183147</v>
       </c>
     </row>
     <row r="40">
